--- a/biology/Zoologie/Acanthocreagris_pyrenaica/Acanthocreagris_pyrenaica.xlsx
+++ b/biology/Zoologie/Acanthocreagris_pyrenaica/Acanthocreagris_pyrenaica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthocreagris pyrenaica est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Occitanie en France[1]. Elle se rencontre en Ariège.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Occitanie en France. Elle se rencontre en Ariège.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,86 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,86 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ideobisium pyrenaicum par Ellingsen en 1909. Elle est placée dans le genre Microcreagris par Beier en 1932[3] puis dans le genre Acanthocreagris par Mahnert en 1976[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ideobisium pyrenaicum par Ellingsen en 1909. Elle est placée dans le genre Microcreagris par Beier en 1932 puis dans le genre Acanthocreagris par Mahnert en 1976.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, les Pyrénées.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ellingsen, 1909 : Contributions to the knowledge of the pseudoscorpions from material belonging to the Museo Civico in Genova. Annali del Museo Civico di Storia Naturale di Genova, sér. 3, vol. 4, p. 205-220 (texte intégral).</t>
         </is>
